--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D67472-BCA7-41D6-8ACA-30C25F4722EE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612EDC3-1D6B-44DE-94B9-1A4E8635B433}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{44BCB50C-B798-4AEE-99F1-BE117E10C7E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,59 @@
   <si>
     <t>{(cure, 20, 3, 5)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -678,546 +731,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0D3FE8-79FF-45A8-814A-C30B48FA7FBE}">
-  <dimension ref="B1:K29"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
-    <col min="11" max="11" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5" customWidth="1"/>
+    <col min="12" max="12" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612EDC3-1D6B-44DE-94B9-1A4E8635B433}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{44BCB50C-B798-4AEE-99F1-BE117E10C7E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,12 +340,41 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 변화율
+(음수도 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 스택 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 시간 (초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Haste, 20, 5,5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0D3FE8-79FF-45A8-814A-C30B48FA7FBE}">
-  <dimension ref="B1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1192,6 +1223,33 @@
         <v>41</v>
       </c>
     </row>
+    <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -363,11 +363,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(Haste, 20, 5,5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 속도 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(haste, 20, 5,5)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +765,7 @@
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,10 +1244,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC9C1D-000D-43FB-B3E3-30BA89529537}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(slow, -20, 2, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(slience, 5)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,39 +251,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(divine, 2, 30)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지속 시간 (초)</t>
-  </si>
-  <si>
-    <t>{(flame, 15, 1, 5, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(poison, 15, 5, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(unweapon, 3, 3, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(unarmor, 3, 3, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(upweapon, 3, 3, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(uparmor, 3, 3, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(cure, 20, 3, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>순번</t>
@@ -367,14 +332,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(haste, 20, 5,5)}</t>
+    <t>스택 감소 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(slow, -20, 2, 5, sec)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(flame, 15, 1, 5, 5, sec)}</t>
+  </si>
+  <si>
+    <t>{(unweapon, 3, 3, 5, sec)}</t>
+  </si>
+  <si>
+    <t>{(uparmor, 3, 3, 5, sec)}</t>
+  </si>
+  <si>
+    <t>{(cure, 20, 3, 5, sec)}</t>
+  </si>
+  <si>
+    <t>{(unarmor, 3, 3, 5, all)}</t>
+  </si>
+  <si>
+    <t>{(upweapon, 3, 3, 5, all)}</t>
+  </si>
+  <si>
+    <t>{(haste, 20, 5,5, all)}</t>
+  </si>
+  <si>
+    <t>{(divine, 2, 30, sec)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(poison, 15, 5, 5, all)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,12 +390,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -429,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,7 +783,7 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43.5" customWidth="1"/>
     <col min="12" max="12" width="51.75" customWidth="1"/>
   </cols>
@@ -784,7 +791,7 @@
     <row r="1" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -819,7 +826,7 @@
     </row>
     <row r="3" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -831,14 +838,16 @@
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>49</v>
+      <c r="K3" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>26</v>
@@ -846,13 +855,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -861,7 +870,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>27</v>
@@ -869,16 +878,16 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -886,7 +895,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>28</v>
@@ -894,13 +903,13 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -909,7 +918,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
@@ -917,7 +926,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -932,7 +941,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>29</v>
@@ -940,13 +949,13 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -955,7 +964,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>30</v>
@@ -963,13 +972,13 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -978,7 +987,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
@@ -986,13 +995,13 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1001,7 +1010,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
@@ -1009,7 +1018,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1018,15 +1027,17 @@
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>59</v>
+      <c r="K11" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>33</v>
@@ -1034,7 +1045,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1046,14 +1057,16 @@
         <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>62</v>
+      <c r="K12" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>35</v>
@@ -1061,7 +1074,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1076,13 +1089,15 @@
         <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>61</v>
+      <c r="K13" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>36</v>
@@ -1090,7 +1105,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1102,14 +1117,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>63</v>
+      <c r="K14" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>37</v>
@@ -1117,7 +1134,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -1129,14 +1146,16 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>64</v>
+      <c r="K15" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>38</v>
@@ -1144,7 +1163,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1156,14 +1175,16 @@
         <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>65</v>
+      <c r="K16" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>39</v>
@@ -1171,7 +1192,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1183,14 +1204,16 @@
         <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>66</v>
+      <c r="K17" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>40</v>
@@ -1198,7 +1221,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
@@ -1210,14 +1233,16 @@
         <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>67</v>
+      <c r="K18" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>41</v>
@@ -1225,29 +1250,31 @@
     </row>
     <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="4" t="s">
-        <v>91</v>
+      <c r="K19" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FC9C1D-000D-43FB-B3E3-30BA89529537}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7479D5FC-CB06-4E99-BF34-EB8DE91E6289}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,38 @@
   </si>
   <si>
     <t>{(poison, 15, 5, 5, all)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황색 계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,10 +818,11 @@
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43.5" customWidth="1"/>
     <col min="12" max="12" width="51.75" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
@@ -823,8 +856,11 @@
       <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="M2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
@@ -852,8 +888,11 @@
       <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -875,8 +914,9 @@
       <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
@@ -900,8 +940,11 @@
       <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -923,8 +966,9 @@
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
@@ -946,8 +990,9 @@
       <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -969,8 +1014,9 @@
       <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
@@ -992,8 +1038,11 @@
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1015,8 +1064,9 @@
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
@@ -1042,8 +1092,11 @@
       <c r="L11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
@@ -1071,8 +1124,11 @@
       <c r="L12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
@@ -1102,8 +1158,11 @@
       <c r="L13" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
@@ -1131,8 +1190,9 @@
       <c r="L14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
@@ -1160,8 +1220,9 @@
       <c r="L15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
@@ -1189,8 +1250,9 @@
       <c r="L16" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
@@ -1218,8 +1280,9 @@
       <c r="L17" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1247,8 +1310,11 @@
       <c r="L18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="M18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -1276,6 +1342,7 @@
       <c r="L19" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7479D5FC-CB06-4E99-BF34-EB8DE91E6289}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,22 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unwepon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unarmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upwepon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uparmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,13 +381,29 @@
   </si>
   <si>
     <t>주황색 계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upatk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unatk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,11 +799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,7 +823,7 @@
     <row r="1" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -854,53 +853,53 @@
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -909,25 +908,25 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -935,24 +934,24 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -961,22 +960,22 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -985,22 +984,22 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1009,22 +1008,22 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1033,24 +1032,24 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1059,46 +1058,46 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1107,30 +1106,30 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1139,208 +1138,208 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M19" s="1"/>
     </row>

--- a/DesignDocs/Design/Abnormal_Type.xlsx
+++ b/DesignDocs/Design/Abnormal_Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A077EA2-5C7F-4A33-897B-077D9AE6ADD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +404,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
